--- a/WebTemplate/Resources/Template/CrewPayrollSheetB.xlsx
+++ b/WebTemplate/Resources/Template/CrewPayrollSheetB.xlsx
@@ -396,22 +396,21 @@
   <dimension ref="A12:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6" customWidth="1"/>
+    <col min="7" max="12" width="10" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="5" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" style="8" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" style="8" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" style="8" customWidth="1"/>
